--- a/artfynd/A 11490-2023 artfynd.xlsx
+++ b/artfynd/A 11490-2023 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130673736</v>
       </c>
       <c r="B2" t="n">
-        <v>58054</v>
+        <v>58058</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
